--- a/Codemig/AMR_Model/HEx_Hot.xlsx
+++ b/Codemig/AMR_Model/HEx_Hot.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guilherme\Documents\GitHub\Jupyter\Codemig\AMR_Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1806AB5F-F160-4304-8A96-B75451808750}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97624A72-A9D6-4613-8366-B2915F0453B5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,12 +30,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -50,8 +56,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -392,8 +399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I2406"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2369" workbookViewId="0">
-      <selection activeCell="A1611" sqref="A1611:E2406"/>
+    <sheetView tabSelected="1" topLeftCell="A547" workbookViewId="0">
+      <selection activeCell="M566" sqref="M566"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16351,322 +16358,322 @@
         <v>0.9500000000000004</v>
       </c>
     </row>
-    <row r="551" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A551">
+    <row r="551" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A551" s="1">
         <v>337.49999999999949</v>
       </c>
-      <c r="B551">
+      <c r="B551" s="1">
         <v>8.7594902711801259E-2</v>
       </c>
-      <c r="C551">
+      <c r="C551" s="1">
         <v>76.037292498768949</v>
       </c>
-      <c r="D551">
+      <c r="D551" s="1">
         <v>73.663661167088577</v>
       </c>
-      <c r="E551">
+      <c r="E551" s="1">
         <v>2.3736313316803659</v>
       </c>
-      <c r="F551">
+      <c r="F551" s="1">
         <v>3.1749999999999999E-3</v>
       </c>
-      <c r="G551">
+      <c r="G551" s="1">
         <v>1</v>
       </c>
-      <c r="H551">
-        <v>3</v>
-      </c>
-      <c r="I551">
-        <v>0.9500000000000004</v>
-      </c>
-    </row>
-    <row r="552" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A552">
+      <c r="H551" s="1">
+        <v>3</v>
+      </c>
+      <c r="I551" s="1">
+        <v>0.9500000000000004</v>
+      </c>
+    </row>
+    <row r="552" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A552" s="1">
         <v>337.49999999999949</v>
       </c>
-      <c r="B552">
+      <c r="B552" s="1">
         <v>8.7460824683900706E-2</v>
       </c>
-      <c r="C552">
+      <c r="C552" s="1">
         <v>53.453884432288262</v>
       </c>
-      <c r="D552">
+      <c r="D552" s="1">
         <v>51.080253100607898</v>
       </c>
-      <c r="E552">
+      <c r="E552" s="1">
         <v>2.3736313316803659</v>
       </c>
-      <c r="F552">
-        <v>5.0800000000000003E-3</v>
-      </c>
-      <c r="G552">
+      <c r="F552" s="1">
+        <v>5.0800000000000003E-3</v>
+      </c>
+      <c r="G552" s="1">
         <v>1</v>
       </c>
-      <c r="H552">
-        <v>3</v>
-      </c>
-      <c r="I552">
-        <v>0.9500000000000004</v>
-      </c>
-    </row>
-    <row r="553" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A553">
+      <c r="H552" s="1">
+        <v>3</v>
+      </c>
+      <c r="I552" s="1">
+        <v>0.9500000000000004</v>
+      </c>
+    </row>
+    <row r="553" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A553" s="1">
         <v>337.49999999999949</v>
       </c>
-      <c r="B553">
+      <c r="B553" s="1">
         <v>8.0414564711520975E-2</v>
       </c>
-      <c r="C553">
+      <c r="C553" s="1">
         <v>47.654698132787189</v>
       </c>
-      <c r="D553">
+      <c r="D553" s="1">
         <v>45.281066801106817</v>
       </c>
-      <c r="E553">
+      <c r="E553" s="1">
         <v>2.3736313316803659</v>
       </c>
-      <c r="F553">
-        <v>6.3E-3</v>
-      </c>
-      <c r="G553">
+      <c r="F553" s="1">
+        <v>6.3E-3</v>
+      </c>
+      <c r="G553" s="1">
         <v>1</v>
       </c>
-      <c r="H553">
-        <v>3</v>
-      </c>
-      <c r="I553">
-        <v>0.9500000000000004</v>
-      </c>
-    </row>
-    <row r="554" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A554">
+      <c r="H553" s="1">
+        <v>3</v>
+      </c>
+      <c r="I553" s="1">
+        <v>0.9500000000000004</v>
+      </c>
+    </row>
+    <row r="554" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A554" s="1">
         <v>337.49999999999949</v>
       </c>
-      <c r="B554">
+      <c r="B554" s="1">
         <v>0.14836815698965169</v>
       </c>
-      <c r="C554">
+      <c r="C554" s="1">
         <v>98.753363116569517</v>
       </c>
-      <c r="D554">
+      <c r="D554" s="1">
         <v>94.006100453208788</v>
       </c>
-      <c r="E554">
+      <c r="E554" s="1">
         <v>4.7472626633607318</v>
       </c>
-      <c r="F554">
-        <v>5.0800000000000003E-3</v>
-      </c>
-      <c r="G554">
+      <c r="F554" s="1">
+        <v>5.0800000000000003E-3</v>
+      </c>
+      <c r="G554" s="1">
         <v>2</v>
       </c>
-      <c r="H554">
-        <v>3</v>
-      </c>
-      <c r="I554">
-        <v>0.9500000000000004</v>
-      </c>
-    </row>
-    <row r="555" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A555">
+      <c r="H554" s="1">
+        <v>3</v>
+      </c>
+      <c r="I554" s="1">
+        <v>0.9500000000000004</v>
+      </c>
+    </row>
+    <row r="555" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A555" s="1">
         <v>337.49999999999949</v>
       </c>
-      <c r="B555">
+      <c r="B555" s="1">
         <v>0.13561629931355329</v>
       </c>
-      <c r="C555">
+      <c r="C555" s="1">
         <v>88.844546957061851</v>
       </c>
-      <c r="D555">
+      <c r="D555" s="1">
         <v>84.097284293701122</v>
       </c>
-      <c r="E555">
+      <c r="E555" s="1">
         <v>4.7472626633607318</v>
       </c>
-      <c r="F555">
-        <v>6.3E-3</v>
-      </c>
-      <c r="G555">
+      <c r="F555" s="1">
+        <v>6.3E-3</v>
+      </c>
+      <c r="G555" s="1">
         <v>2</v>
       </c>
-      <c r="H555">
-        <v>3</v>
-      </c>
-      <c r="I555">
-        <v>0.9500000000000004</v>
-      </c>
-    </row>
-    <row r="556" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A556">
+      <c r="H555" s="1">
+        <v>3</v>
+      </c>
+      <c r="I555" s="1">
+        <v>0.9500000000000004</v>
+      </c>
+    </row>
+    <row r="556" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A556" s="1">
         <v>337.49999999999949</v>
       </c>
-      <c r="B556">
+      <c r="B556" s="1">
         <v>0.1894655339657263</v>
       </c>
-      <c r="C556">
+      <c r="C556" s="1">
         <v>135.1999447149127</v>
       </c>
-      <c r="D556">
+      <c r="D556" s="1">
         <v>128.07905071987159</v>
       </c>
-      <c r="E556">
+      <c r="E556" s="1">
         <v>7.120893995041099</v>
       </c>
-      <c r="F556">
-        <v>5.0800000000000003E-3</v>
-      </c>
-      <c r="G556">
-        <v>3</v>
-      </c>
-      <c r="H556">
-        <v>3</v>
-      </c>
-      <c r="I556">
-        <v>0.9500000000000004</v>
-      </c>
-    </row>
-    <row r="557" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A557">
+      <c r="F556" s="1">
+        <v>5.0800000000000003E-3</v>
+      </c>
+      <c r="G556" s="1">
+        <v>3</v>
+      </c>
+      <c r="H556" s="1">
+        <v>3</v>
+      </c>
+      <c r="I556" s="1">
+        <v>0.9500000000000004</v>
+      </c>
+    </row>
+    <row r="557" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A557" s="1">
         <v>337.49999999999949</v>
       </c>
-      <c r="B557">
+      <c r="B557" s="1">
         <v>0.17414380683071351</v>
       </c>
-      <c r="C557">
+      <c r="C557" s="1">
         <v>122.79920674641561</v>
       </c>
-      <c r="D557">
+      <c r="D557" s="1">
         <v>115.67831275137451</v>
       </c>
-      <c r="E557">
+      <c r="E557" s="1">
         <v>7.120893995041099</v>
       </c>
-      <c r="F557">
-        <v>6.3E-3</v>
-      </c>
-      <c r="G557">
-        <v>3</v>
-      </c>
-      <c r="H557">
-        <v>3</v>
-      </c>
-      <c r="I557">
-        <v>0.9500000000000004</v>
-      </c>
-    </row>
-    <row r="558" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A558">
+      <c r="F557" s="1">
+        <v>6.3E-3</v>
+      </c>
+      <c r="G557" s="1">
+        <v>3</v>
+      </c>
+      <c r="H557" s="1">
+        <v>3</v>
+      </c>
+      <c r="I557" s="1">
+        <v>0.9500000000000004</v>
+      </c>
+    </row>
+    <row r="558" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A558" s="1">
         <v>337.49999999999949</v>
       </c>
-      <c r="B558">
+      <c r="B558" s="1">
         <v>0.22797530213481651</v>
       </c>
-      <c r="C558">
+      <c r="C558" s="1">
         <v>208.33312812229011</v>
       </c>
-      <c r="D558">
+      <c r="D558" s="1">
         <v>198.83860279556859</v>
       </c>
-      <c r="E558">
+      <c r="E558" s="1">
         <v>9.4945253267214635</v>
       </c>
-      <c r="F558">
+      <c r="F558" s="1">
         <v>3.1749999999999999E-3</v>
       </c>
-      <c r="G558">
+      <c r="G558" s="1">
         <v>4</v>
       </c>
-      <c r="H558">
-        <v>3</v>
-      </c>
-      <c r="I558">
-        <v>0.9500000000000004</v>
-      </c>
-    </row>
-    <row r="559" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A559">
+      <c r="H558" s="1">
+        <v>3</v>
+      </c>
+      <c r="I558" s="1">
+        <v>0.9500000000000004</v>
+      </c>
+    </row>
+    <row r="559" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A559" s="1">
         <v>337.49999999999949</v>
       </c>
-      <c r="B559">
+      <c r="B559" s="1">
         <v>0.21792911548120339</v>
       </c>
-      <c r="C559">
+      <c r="C559" s="1">
         <v>166.63078530124531</v>
       </c>
-      <c r="D559">
+      <c r="D559" s="1">
         <v>157.13625997452391</v>
       </c>
-      <c r="E559">
+      <c r="E559" s="1">
         <v>9.4945253267214635</v>
       </c>
-      <c r="F559">
-        <v>5.0800000000000003E-3</v>
-      </c>
-      <c r="G559">
+      <c r="F559" s="1">
+        <v>5.0800000000000003E-3</v>
+      </c>
+      <c r="G559" s="1">
         <v>4</v>
       </c>
-      <c r="H559">
-        <v>3</v>
-      </c>
-      <c r="I559">
-        <v>0.9500000000000004</v>
-      </c>
-    </row>
-    <row r="560" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A560">
+      <c r="H559" s="1">
+        <v>3</v>
+      </c>
+      <c r="I559" s="1">
+        <v>0.9500000000000004</v>
+      </c>
+    </row>
+    <row r="560" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A560" s="1">
         <v>337.49999999999949</v>
       </c>
-      <c r="B560">
+      <c r="B560" s="1">
         <v>0.20161478143485401</v>
       </c>
-      <c r="C560">
+      <c r="C560" s="1">
         <v>151.4148014298093</v>
       </c>
-      <c r="D560">
+      <c r="D560" s="1">
         <v>141.92027610308779</v>
       </c>
-      <c r="E560">
+      <c r="E560" s="1">
         <v>9.4945253267214635</v>
       </c>
-      <c r="F560">
-        <v>6.3E-3</v>
-      </c>
-      <c r="G560">
+      <c r="F560" s="1">
+        <v>6.3E-3</v>
+      </c>
+      <c r="G560" s="1">
         <v>4</v>
       </c>
-      <c r="H560">
-        <v>3</v>
-      </c>
-      <c r="I560">
-        <v>0.9500000000000004</v>
-      </c>
-    </row>
-    <row r="561" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A561">
+      <c r="H560" s="1">
+        <v>3</v>
+      </c>
+      <c r="I560" s="1">
+        <v>0.9500000000000004</v>
+      </c>
+    </row>
+    <row r="561" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A561" s="1">
         <v>339.99999999999949</v>
       </c>
-      <c r="B561">
+      <c r="B561" s="1">
         <v>8.7036707406631497E-2</v>
       </c>
-      <c r="C561">
+      <c r="C561" s="1">
         <v>76.085453187427035</v>
       </c>
-      <c r="D561">
+      <c r="D561" s="1">
         <v>73.663661167088577</v>
       </c>
-      <c r="E561">
+      <c r="E561" s="1">
         <v>2.4217920203384509</v>
       </c>
-      <c r="F561">
+      <c r="F561" s="1">
         <v>3.1749999999999999E-3</v>
       </c>
-      <c r="G561">
+      <c r="G561" s="1">
         <v>1</v>
       </c>
-      <c r="H561">
-        <v>3</v>
-      </c>
-      <c r="I561">
+      <c r="H561" s="1">
+        <v>3</v>
+      </c>
+      <c r="I561" s="1">
         <v>0.9500000000000004</v>
       </c>
     </row>
